--- a/Dataout/dnsp_pes_2025-07-29.xlsx
+++ b/Dataout/dnsp_pes_2025-07-29.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
-    <t xml:space="preserve">Dados Retirados em: 29/07/2025 05:41</t>
+    <t xml:space="preserve">Dados Retirados em: 29/07/2025 15:13</t>
   </si>
   <si>
     <t xml:space="preserve">Acções necessárias após a criação do Excel</t>
@@ -251,22 +251,22 @@
     <t xml:space="preserve">financiador</t>
   </si>
   <si>
-    <t xml:space="preserve">Realizar formação de 30 provedores em materia de HPV/DNA</t>
+    <t xml:space="preserve">Formacao sobre novo protocolo de testagem do HIV</t>
   </si>
   <si>
-    <t xml:space="preserve">Rastrear 1296588 mulheres para o cancro  do colo do utero</t>
+    <t xml:space="preserve">Melhorar acesso de testagem do HIV</t>
   </si>
   <si>
-    <t xml:space="preserve">Virtual</t>
+    <t xml:space="preserve">Presencial</t>
   </si>
   <si>
-    <t xml:space="preserve">DNT</t>
+    <t xml:space="preserve">PNCM</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos de Saúde</t>
+    <t xml:space="preserve">PVHIV</t>
   </si>
   <si>
-    <t xml:space="preserve">Zambézia (15), Gaza (10), Maputo Cidade (5)</t>
+    <t xml:space="preserve">Niassa (50), Cabo Delgado (50), Nampula (50), Zambézia (50), Tete (50), Manica (50), Sofala (50), Inhambane (50), Gaza (50), Maputo Província (50), Maputo Cidade (50)</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -275,70 +275,7 @@
     <t xml:space="preserve">x</t>
   </si>
   <si>
-    <t xml:space="preserve">CDC/COAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 Formações virtuais de echo vidiocoferencia com a MD Anderson em materia de rastreio do concro do colo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niassa (49), Cabo Delgado (49), Nampula (55), Zambézia (66), Tete (49), Manica (50), Sofala (49), Inhambane (49), Gaza (49), Maputo Cidade (36), Maputo Província (49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banco Mundial, GAVI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formar tecnicos no âmbito de controlo de qualidade agua, alimentos e gestão laboratorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controlar a qualidade de aguas, alimentos e zaragatoas através de amostras analisadas no laboratório</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presencial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LNHAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tecnicos de saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niassa (30), Cabo Delgado (30), Nampula (30), Zambézia (30), Tete (30), Manica (30), Sofala (30), Inhambane (30), Gaza (30), Maputo Cidade (30), Maputo Província (30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar formação para tecnicos de entomologia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assegurar as intervenções de controlo vectorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNCM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">População geral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norte (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fundo Global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacitar mentores clinicos internos para a expansação de tutorias clinicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manter a 95% ou mais a cobertura de TARV em pacientes coinfectados TB/HIV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niassa (15), Cabo Delgado (15), Nampula (15), Zambézia (15), Tete (15), Manica (15), Sofala (15), Inhambane (15), Gaza (15), Maputo Cidade (15)</t>
+    <t xml:space="preserve">PEPFAR, Fundo Global</t>
   </si>
   <si>
     <t xml:space="preserve">_index</t>
@@ -461,208 +398,97 @@
     <t xml:space="preserve">ttd_servicos_gerais_outro</t>
   </si>
   <si>
-    <t xml:space="preserve">FNUAP</t>
+    <t xml:space="preserve">ProSaude</t>
   </si>
   <si>
-    <t xml:space="preserve">DNSP-DNT-A1</t>
+    <t xml:space="preserve">DNSP-Nutricao-A1</t>
   </si>
   <si>
-    <t xml:space="preserve">Rastrear 1.296.588 para o Câncro de Mama nos CSP</t>
+    <t xml:space="preserve">Melhorar sistemas de eHealth para nutricao</t>
   </si>
   <si>
-    <t xml:space="preserve">Número de Mulheres do grupo alvo rastreadas na consulta de PF/CACUM</t>
+    <t xml:space="preserve">Arquivos digitados</t>
   </si>
   <si>
-    <t xml:space="preserve">DNSP-DNT-A1.1</t>
+    <t xml:space="preserve">Nutricao</t>
   </si>
   <si>
-    <t xml:space="preserve">Realizar visitas de supervisão e apoio tecnico para as actividades de rastreio do cancro da  mama (com os especialistas da mama)</t>
+    <t xml:space="preserve">DNSP-Nutricao-A1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
+    <t xml:space="preserve">Adquerir recarga de telefone para mandar info digital</t>
   </si>
   <si>
-    <t xml:space="preserve">Número de visitas de supervisões e apoios tecnicos realizados</t>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numero de recargas feitas no ano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivel Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desnutridos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundo Global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNSP-PNC ITS-HIV/SIDA-A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensaio actividade principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensaio indicador de producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNC ITS-HIV/SIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNSP-PNC ITS-HIV/SIDA-A1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar a ronda nacional anual de 2026 de avaliação de qualidade de dados (AQD) para indicadores do HIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numero de US TARV tendo beneficiado de uma AQD-HIV</t>
   </si>
   <si>
     <t xml:space="preserve">Nivel Provincial</t>
   </si>
   <si>
-    <t xml:space="preserve">DNSP-DNT-A2</t>
+    <t xml:space="preserve">Provedores de M&amp;A e HIV</t>
   </si>
   <si>
-    <t xml:space="preserve">Número de Mulheres  rastreadas para o cancro do colo do utero no primeiro nivel de atencao</t>
+    <t xml:space="preserve">DNSP-PNCM-A1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNSP-DNT-A2.1</t>
+    <t xml:space="preserve">Pessoas testadas para o HIV</t>
   </si>
   <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de provedores formados em materia de HPV/DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de Mulheres rastreadas para o cancro do colo do utero no primeiro nivel de atencao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSP-DNT-A2.2</t>
+    <t xml:space="preserve">DNSP-PNCM-A1.1</t>
   </si>
   <si>
     <t xml:space="preserve">550</t>
   </si>
   <si>
-    <t xml:space="preserve">Número de provedores formados em materia de echo vidiocoferencia com a MD Anderson em materia de rastreio do concro do colo e do utero</t>
+    <t xml:space="preserve">Numero de provedores treinados no novo protocolo de testagem</t>
   </si>
   <si>
-    <t xml:space="preserve">Fundacao Gates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSP-DSA-A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recarga de telemoveis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numero de telemovies com credito regarcado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSP-DSA-A1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compra de credito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telefones recargados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nivel Central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funcionarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSP-LNHAA-A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de amostras  analisadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSP-LNHAA-A1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numero de tecnicos formados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSP-PNCM-A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numero população beneficiando de pelo menos um metodo de controlo vectorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSP-PNCM-A1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numero de técnicos formados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nivel Regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSP-PNCT-A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% de pacientes co-infectados TB/HIV notificados pelo PNCT, em TARV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSP-PNCT-A1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numero de metores clinicos capacitados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSP-PNSEAJ-A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make sure adoloscents have credit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adolescents with credit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNSEAJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSP-PNSEAJ-A1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy adolescents sufficient credit to access virtual health messaging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adolescents recharged with credit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adolescents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProSaude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSP-Saude Mental-A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expandir a abordagem de intervenção CETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abordagem CETA Expandido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saude Mental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSP-Saude Mental-A1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar visitas de apoio técnico Saude Mental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nº de províncias beneficiadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US com expansão da abordagem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banco Mundial</t>
+    <t xml:space="preserve">OE</t>
   </si>
   <si>
     <t xml:space="preserve">DNSP-UMA-A1</t>
   </si>
   <si>
-    <t xml:space="preserve">Aprender R</t>
+    <t xml:space="preserve">Melhorar qualidade e analise de dados</t>
   </si>
   <si>
-    <t xml:space="preserve">Aprender R com skills</t>
+    <t xml:space="preserve">Dashboards mensais actualizadas para todos programas</t>
   </si>
   <si>
     <t xml:space="preserve">UMA</t>
@@ -671,61 +497,37 @@
     <t xml:space="preserve">DNSP-UMA-A1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Assistir curso presencial de R em Cape Town</t>
+    <t xml:space="preserve">Adquerir licensas institucionais para o Posit Cloud Team</t>
   </si>
   <si>
-    <t xml:space="preserve">Cursos asistidos com certificado obtenido</t>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
-    <t xml:space="preserve">Nivel Internacional</t>
+    <t xml:space="preserve">Meses com dashboards actualizados</t>
   </si>
   <si>
-    <t xml:space="preserve">Niassa (1), Cabo Delgado (1), Nampula (1), Zambézia (1), Tete (1), Manica (1), Sofala (1), Inhambane (1), Gaza (1), Maputo Cidade (1), Maputo Província (1)</t>
+    <t xml:space="preserve">Nivel Central (1000)</t>
   </si>
   <si>
-    <t xml:space="preserve">163,600.00</t>
+    <t xml:space="preserve">500,000.00</t>
   </si>
   <si>
     <t xml:space="preserve">0.00</t>
   </si>
   <si>
-    <t xml:space="preserve">153,400.00</t>
+    <t xml:space="preserve">Niassa (6), Cabo Delgado (6), Nampula (6), Zambézia (6), Tete (6), Manica (6), Sofala (6), Inhambane (6), Gaza (6), Maputo Província (6), Maputo Cidade (5)</t>
   </si>
   <si>
-    <t xml:space="preserve">10,000.00</t>
+    <t xml:space="preserve">251,200.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Nivel Central (1000)</t>
+    <t xml:space="preserve">695,400.00</t>
   </si>
   <si>
-    <t xml:space="preserve">250,000.00</t>
+    <t xml:space="preserve">Nivel Central (8)</t>
   </si>
   <si>
-    <t xml:space="preserve">672,600.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130,800.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,707,000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nivel Central (5000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,025,000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nivel Central (11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67,600.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nivel Internacional (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213,300.00</t>
+    <t xml:space="preserve">180,000.00</t>
   </si>
 </sst>
 </file>
@@ -53123,17 +52925,17 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="3.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="20.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="102.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="91.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="24.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="42.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="52.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="25.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="20.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="22.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="129.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="26.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="106.71" hidden="0" customWidth="1"/>
     <col min="9" max="9" width="18.71" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="135.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="60.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="168.71" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="29.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="27.71" hidden="0" customWidth="1"/>
     <col min="13" max="13" width="19.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="16.71" hidden="0" customWidth="1"/>
     <col min="15" max="15" width="22.71" hidden="0" customWidth="1"/>
@@ -53209,22 +53011,22 @@
         <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -53233,7 +53035,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="K1" t="s">
         <v>12</v>
@@ -53242,19 +53044,19 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="N1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="O1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="P1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="Q1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="R1" t="s">
         <v>13</v>
@@ -53451,217 +53253,217 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E2" t="n">
-        <v>1296588</v>
+        <v>0.7</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="K2" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="M2" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="N2" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="O2" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="P2" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="Q2" t="s">
-        <v>223</v>
-      </c>
-      <c r="R2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" t="s">
-        <v>84</v>
-      </c>
-      <c r="T2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U2" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W2" t="s">
-        <v>84</v>
+        <v>165</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="Y2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>84</v>
+      <c r="Y2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="AC2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AD2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>84</v>
+      <c r="AD2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="AJ2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AK2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>84</v>
+      <c r="AK2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="AP2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>84</v>
+      <c r="AQ2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="AX2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AY2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>84</v>
+      <c r="AY2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC2" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="BD2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="BE2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>84</v>
+      <c r="BE2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH2" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="BI2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>84</v>
+      <c r="BJ2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN2" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="BO2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="BP2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>84</v>
+      <c r="BP2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT2" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="BU2" s="6" t="s">
         <v>85</v>
@@ -53669,14 +53471,14 @@
       <c r="BV2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="BW2" t="s">
-        <v>84</v>
+      <c r="BW2" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="BX2" t="s">
         <v>84</v>
       </c>
-      <c r="BY2" s="6" t="s">
-        <v>85</v>
+      <c r="BY2" t="s">
+        <v>84</v>
       </c>
       <c r="BZ2" t="s">
         <v>84</v>
@@ -53693,52 +53495,52 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="E3" t="n">
-        <v>1296588</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="I3" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="M3" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="N3" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="O3" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="P3" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="R3" t="s">
         <v>84</v>
@@ -53773,152 +53575,152 @@
       <c r="AB3" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>84</v>
+      <c r="AC3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="AF3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AG3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>84</v>
+      <c r="AG3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BV3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BX3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY3" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="BZ3" t="s">
         <v>84</v>
@@ -53935,52 +53737,52 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E4" t="n">
-        <v>1296588</v>
+        <v>7000000</v>
       </c>
       <c r="F4" t="s">
         <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I4" t="n">
         <v>550</v>
       </c>
       <c r="J4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s">
         <v>82</v>
       </c>
       <c r="M4" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="N4" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="O4" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="P4" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="Q4" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="R4" t="s">
         <v>84</v>
@@ -54000,8 +53802,8 @@
       <c r="W4" t="s">
         <v>84</v>
       </c>
-      <c r="X4" s="6" t="s">
-        <v>85</v>
+      <c r="X4" t="s">
+        <v>84</v>
       </c>
       <c r="Y4" t="s">
         <v>84</v>
@@ -54015,8 +53817,8 @@
       <c r="AB4" t="s">
         <v>84</v>
       </c>
-      <c r="AC4" s="6" t="s">
-        <v>85</v>
+      <c r="AC4" t="s">
+        <v>84</v>
       </c>
       <c r="AD4" t="s">
         <v>84</v>
@@ -54033,11 +53835,11 @@
       <c r="AH4" t="s">
         <v>84</v>
       </c>
-      <c r="AI4" s="6" t="s">
+      <c r="AI4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>84</v>
       </c>
       <c r="AK4" t="s">
         <v>84</v>
@@ -54048,11 +53850,11 @@
       <c r="AM4" t="s">
         <v>84</v>
       </c>
-      <c r="AN4" s="6" t="s">
+      <c r="AN4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO4" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>84</v>
       </c>
       <c r="AP4" t="s">
         <v>84</v>
@@ -54060,8 +53862,8 @@
       <c r="AQ4" t="s">
         <v>84</v>
       </c>
-      <c r="AR4" s="6" t="s">
-        <v>85</v>
+      <c r="AR4" t="s">
+        <v>84</v>
       </c>
       <c r="AS4" t="s">
         <v>84</v>
@@ -54069,14 +53871,14 @@
       <c r="AT4" t="s">
         <v>84</v>
       </c>
-      <c r="AU4" t="s">
-        <v>84</v>
+      <c r="AU4" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="AV4" t="s">
         <v>84</v>
       </c>
-      <c r="AW4" s="6" t="s">
-        <v>85</v>
+      <c r="AW4" t="s">
+        <v>84</v>
       </c>
       <c r="AX4" t="s">
         <v>84</v>
@@ -54093,8 +53895,8 @@
       <c r="BB4" t="s">
         <v>84</v>
       </c>
-      <c r="BC4" s="6" t="s">
-        <v>85</v>
+      <c r="BC4" t="s">
+        <v>84</v>
       </c>
       <c r="BD4" t="s">
         <v>84</v>
@@ -54111,8 +53913,8 @@
       <c r="BH4" t="s">
         <v>84</v>
       </c>
-      <c r="BI4" s="6" t="s">
-        <v>85</v>
+      <c r="BI4" t="s">
+        <v>84</v>
       </c>
       <c r="BJ4" t="s">
         <v>84</v>
@@ -54126,8 +53928,8 @@
       <c r="BM4" t="s">
         <v>84</v>
       </c>
-      <c r="BN4" s="6" t="s">
-        <v>85</v>
+      <c r="BN4" t="s">
+        <v>84</v>
       </c>
       <c r="BO4" t="s">
         <v>84</v>
@@ -54141,8 +53943,8 @@
       <c r="BR4" t="s">
         <v>84</v>
       </c>
-      <c r="BS4" s="6" t="s">
-        <v>85</v>
+      <c r="BS4" t="s">
+        <v>84</v>
       </c>
       <c r="BT4" t="s">
         <v>84</v>
@@ -54159,8 +53961,8 @@
       <c r="BX4" t="s">
         <v>84</v>
       </c>
-      <c r="BY4" s="6" t="s">
-        <v>85</v>
+      <c r="BY4" t="s">
+        <v>84</v>
       </c>
       <c r="BZ4" t="s">
         <v>84</v>
@@ -54177,52 +53979,52 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>162</v>
+      </c>
+      <c r="K5" t="s">
         <v>169</v>
       </c>
-      <c r="E5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M5" t="s">
         <v>170</v>
       </c>
-      <c r="G5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H5" t="s">
-        <v>172</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J5" t="s">
-        <v>174</v>
-      </c>
-      <c r="K5" t="s">
-        <v>226</v>
-      </c>
-      <c r="L5" t="s">
-        <v>176</v>
-      </c>
-      <c r="M5" t="s">
-        <v>227</v>
-      </c>
       <c r="N5" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="O5" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="P5" t="s">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="Q5" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="R5" t="s">
         <v>84</v>
@@ -54287,1583 +54089,131 @@
       <c r="AL5" t="s">
         <v>84</v>
       </c>
-      <c r="AM5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>84</v>
+      <c r="AM5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX5" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="AY5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AZ5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>84</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>84</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8300</v>
-      </c>
-      <c r="F6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" t="n">
-        <v>270</v>
-      </c>
-      <c r="J6" t="s">
-        <v>181</v>
-      </c>
-      <c r="K6" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" t="s">
-        <v>228</v>
-      </c>
-      <c r="N6" t="s">
-        <v>228</v>
-      </c>
-      <c r="O6" t="s">
-        <v>223</v>
-      </c>
-      <c r="P6" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>223</v>
-      </c>
-      <c r="R6" s="6" t="s">
+      <c r="AZ5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="BA5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="BB5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="BC5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="BD5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="BE5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="BF5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="BG5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="BH5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AA6" s="6" t="s">
+      <c r="BI5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AB6" s="6" t="s">
+      <c r="BJ5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AC6" s="6" t="s">
+      <c r="BK5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="BL5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AE6" s="6" t="s">
+      <c r="BM5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AF6" s="6" t="s">
+      <c r="BN5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AG6" s="6" t="s">
+      <c r="BO5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AH6" s="6" t="s">
+      <c r="BP5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AI6" s="6" t="s">
+      <c r="BQ5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AJ6" s="6" t="s">
+      <c r="BR5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AK6" s="6" t="s">
+      <c r="BS5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AL6" s="6" t="s">
+      <c r="BT5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AM6" s="6" t="s">
+      <c r="BU5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AN6" s="6" t="s">
+      <c r="BV5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AO6" s="6" t="s">
+      <c r="BW5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AP6" s="6" t="s">
+      <c r="BX5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AQ6" s="6" t="s">
+      <c r="BY5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AR6" s="6" t="s">
+      <c r="BZ5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AS6" s="6" t="s">
+      <c r="CA5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AT6" s="6" t="s">
+      <c r="CB5" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="AU6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BI6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BK6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BM6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BN6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BQ6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BR6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BS6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BU6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BV6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BW6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BX6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BY6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BZ6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="CA6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="CB6" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M7" t="s">
-        <v>229</v>
-      </c>
-      <c r="N7" t="s">
-        <v>223</v>
-      </c>
-      <c r="O7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>223</v>
-      </c>
-      <c r="R7" t="s">
-        <v>84</v>
-      </c>
-      <c r="S7" t="s">
-        <v>84</v>
-      </c>
-      <c r="T7" t="s">
-        <v>84</v>
-      </c>
-      <c r="U7" t="s">
-        <v>84</v>
-      </c>
-      <c r="V7" t="s">
-        <v>84</v>
-      </c>
-      <c r="W7" t="s">
-        <v>84</v>
-      </c>
-      <c r="X7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>84</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>84</v>
-      </c>
-      <c r="CB7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="F8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" t="s">
-        <v>190</v>
-      </c>
-      <c r="H8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" t="n">
-        <v>165</v>
-      </c>
-      <c r="J8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K8" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" t="s">
-        <v>106</v>
-      </c>
-      <c r="M8" t="s">
-        <v>230</v>
-      </c>
-      <c r="N8" t="s">
-        <v>223</v>
-      </c>
-      <c r="O8" t="s">
-        <v>223</v>
-      </c>
-      <c r="P8" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>223</v>
-      </c>
-      <c r="R8" t="s">
-        <v>84</v>
-      </c>
-      <c r="S8" t="s">
-        <v>84</v>
-      </c>
-      <c r="T8" t="s">
-        <v>84</v>
-      </c>
-      <c r="U8" t="s">
-        <v>84</v>
-      </c>
-      <c r="V8" t="s">
-        <v>84</v>
-      </c>
-      <c r="W8" t="s">
-        <v>84</v>
-      </c>
-      <c r="X8" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BW8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BX8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BZ8" t="s">
-        <v>84</v>
-      </c>
-      <c r="CA8" t="s">
-        <v>84</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G9" t="s">
-        <v>198</v>
-      </c>
-      <c r="H9" t="s">
-        <v>199</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J9" t="s">
-        <v>201</v>
-      </c>
-      <c r="K9" t="s">
-        <v>231</v>
-      </c>
-      <c r="L9" t="s">
-        <v>202</v>
-      </c>
-      <c r="M9" t="s">
-        <v>232</v>
-      </c>
-      <c r="N9" t="s">
-        <v>223</v>
-      </c>
-      <c r="O9" t="s">
-        <v>223</v>
-      </c>
-      <c r="P9" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>223</v>
-      </c>
-      <c r="R9" t="s">
-        <v>84</v>
-      </c>
-      <c r="S9" t="s">
-        <v>84</v>
-      </c>
-      <c r="T9" t="s">
-        <v>84</v>
-      </c>
-      <c r="U9" t="s">
-        <v>84</v>
-      </c>
-      <c r="V9" t="s">
-        <v>84</v>
-      </c>
-      <c r="W9" t="s">
-        <v>84</v>
-      </c>
-      <c r="X9" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BZ9" t="s">
-        <v>84</v>
-      </c>
-      <c r="CA9" t="s">
-        <v>84</v>
-      </c>
-      <c r="CB9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G10" t="s">
-        <v>208</v>
-      </c>
-      <c r="H10" t="s">
-        <v>209</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11</v>
-      </c>
-      <c r="J10" t="s">
-        <v>210</v>
-      </c>
-      <c r="K10" t="s">
-        <v>233</v>
-      </c>
-      <c r="L10" t="s">
-        <v>211</v>
-      </c>
-      <c r="M10" t="s">
-        <v>234</v>
-      </c>
-      <c r="N10" t="s">
-        <v>223</v>
-      </c>
-      <c r="O10" t="s">
-        <v>234</v>
-      </c>
-      <c r="P10" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>223</v>
-      </c>
-      <c r="R10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T10" t="s">
-        <v>84</v>
-      </c>
-      <c r="U10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BW10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BX10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BZ10" t="s">
-        <v>84</v>
-      </c>
-      <c r="CA10" t="s">
-        <v>84</v>
-      </c>
-      <c r="CB10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>216</v>
-      </c>
-      <c r="G11" t="s">
-        <v>217</v>
-      </c>
-      <c r="H11" t="s">
-        <v>218</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>219</v>
-      </c>
-      <c r="K11" t="s">
-        <v>235</v>
-      </c>
-      <c r="L11" t="s">
-        <v>216</v>
-      </c>
-      <c r="M11" t="s">
-        <v>236</v>
-      </c>
-      <c r="N11" t="s">
-        <v>223</v>
-      </c>
-      <c r="O11" t="s">
-        <v>223</v>
-      </c>
-      <c r="P11" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>223</v>
-      </c>
-      <c r="R11" t="s">
-        <v>84</v>
-      </c>
-      <c r="S11" t="s">
-        <v>84</v>
-      </c>
-      <c r="T11" t="s">
-        <v>84</v>
-      </c>
-      <c r="U11" t="s">
-        <v>84</v>
-      </c>
-      <c r="V11" t="s">
-        <v>84</v>
-      </c>
-      <c r="W11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BW11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BX11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BY11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BZ11" t="s">
-        <v>84</v>
-      </c>
-      <c r="CA11" t="s">
-        <v>84</v>
-      </c>
-      <c r="CB11" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -55881,8 +54231,8 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="3.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="106.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="102.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="48.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="34.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="19.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="20.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="26.71" hidden="0" customWidth="1"/>
@@ -55953,7 +54303,7 @@
     <col min="71" max="71" width="6.71" hidden="0" customWidth="1"/>
     <col min="72" max="72" width="6.71" hidden="0" customWidth="1"/>
     <col min="73" max="73" width="16.71" hidden="0" customWidth="1"/>
-    <col min="74" max="74" width="19.71" hidden="0" customWidth="1"/>
+    <col min="74" max="74" width="20.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -56200,10 +54550,10 @@
         <v>82</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>550</v>
       </c>
       <c r="I2" t="s">
         <v>83</v>
@@ -56250,8 +54600,8 @@
       <c r="W2" t="s">
         <v>84</v>
       </c>
-      <c r="X2" s="6" t="s">
-        <v>85</v>
+      <c r="X2" t="s">
+        <v>84</v>
       </c>
       <c r="Y2" t="s">
         <v>84</v>
@@ -56262,8 +54612,8 @@
       <c r="AA2" t="s">
         <v>84</v>
       </c>
-      <c r="AB2" t="s">
-        <v>84</v>
+      <c r="AB2" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="AC2" t="s">
         <v>84</v>
@@ -56277,8 +54627,8 @@
       <c r="AF2" t="s">
         <v>84</v>
       </c>
-      <c r="AG2" t="s">
-        <v>84</v>
+      <c r="AG2" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="AH2" t="s">
         <v>84</v>
@@ -56295,8 +54645,8 @@
       <c r="AL2" t="s">
         <v>84</v>
       </c>
-      <c r="AM2" t="s">
-        <v>84</v>
+      <c r="AM2" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="AN2" t="s">
         <v>84</v>
@@ -56398,906 +54748,10 @@
         <v>84</v>
       </c>
       <c r="BU2" t="n">
-        <v>153400</v>
+        <v>695400</v>
       </c>
       <c r="BV2" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>550</v>
-      </c>
-      <c r="I3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" t="s">
-        <v>84</v>
-      </c>
-      <c r="N3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>84</v>
-      </c>
-      <c r="R3" t="s">
-        <v>84</v>
-      </c>
-      <c r="S3" t="s">
-        <v>84</v>
-      </c>
-      <c r="T3" t="s">
-        <v>84</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="V3" t="s">
-        <v>84</v>
-      </c>
-      <c r="W3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BQ3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" t="n">
-        <v>364</v>
-      </c>
-      <c r="H4" t="n">
-        <v>270</v>
-      </c>
-      <c r="I4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BI4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BK4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BM4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BN4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BQ4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BR4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BS4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>672600</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>53</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>84</v>
-      </c>
-      <c r="R5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S5" t="s">
-        <v>84</v>
-      </c>
-      <c r="T5" t="s">
-        <v>84</v>
-      </c>
-      <c r="U5" t="s">
-        <v>84</v>
-      </c>
-      <c r="V5" t="s">
-        <v>84</v>
-      </c>
-      <c r="W5" t="s">
-        <v>84</v>
-      </c>
-      <c r="X5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>130800</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" t="n">
-        <v>90</v>
-      </c>
-      <c r="H6" t="n">
-        <v>165</v>
-      </c>
-      <c r="I6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="s">
-        <v>84</v>
-      </c>
-      <c r="N6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>84</v>
-      </c>
-      <c r="R6" t="s">
-        <v>84</v>
-      </c>
-      <c r="S6" t="s">
-        <v>84</v>
-      </c>
-      <c r="T6" t="s">
-        <v>84</v>
-      </c>
-      <c r="U6" t="s">
-        <v>84</v>
-      </c>
-      <c r="V6" t="s">
-        <v>84</v>
-      </c>
-      <c r="W6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>7707000</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -57316,34 +54770,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
         <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -57352,114 +54806,114 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="N1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
       </c>
       <c r="P1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AL1" t="s">
         <v>117</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AM1" t="s">
         <v>118</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AN1" t="s">
         <v>119</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AO1" t="s">
         <v>120</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AP1" t="s">
         <v>121</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AQ1" t="s">
         <v>122</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AR1" t="s">
         <v>123</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AS1" t="s">
         <v>124</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AT1" t="s">
         <v>125</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AU1" t="s">
         <v>126</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -57468,61 +54922,59 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="H2" t="n">
-        <v>1296588</v>
+        <v>0.7</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="K2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="L2" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="M2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="O2" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="P2" t="n">
-        <v>163600</v>
+        <v>500000</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>500000</v>
+      </c>
+      <c r="S2" t="n">
         <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>163600</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2"/>
       <c r="V2"/>
-      <c r="W2" t="n">
-        <v>63600</v>
-      </c>
+      <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
@@ -57531,20 +54983,18 @@
       <c r="AC2"/>
       <c r="AD2"/>
       <c r="AE2"/>
-      <c r="AF2" t="n">
-        <v>100000</v>
-      </c>
+      <c r="AF2"/>
       <c r="AG2"/>
       <c r="AH2"/>
       <c r="AI2"/>
       <c r="AJ2"/>
-      <c r="AK2"/>
+      <c r="AK2" t="n">
+        <v>500000</v>
+      </c>
       <c r="AL2"/>
       <c r="AM2"/>
       <c r="AN2"/>
-      <c r="AO2" t="n">
-        <v>14</v>
-      </c>
+      <c r="AO2"/>
       <c r="AP2"/>
       <c r="AQ2"/>
       <c r="AR2"/>
@@ -57554,7 +55004,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -57563,43 +55013,43 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="H3" t="n">
-        <v>1296588</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="L3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="M3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="N3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="P3" t="n">
-        <v>153400</v>
+        <v>251200</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -57608,14 +55058,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>153400</v>
+        <v>251200</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3"/>
       <c r="V3"/>
-      <c r="W3"/>
+      <c r="W3" t="n">
+        <v>151200</v>
+      </c>
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
@@ -57624,7 +55076,9 @@
       <c r="AC3"/>
       <c r="AD3"/>
       <c r="AE3"/>
-      <c r="AF3"/>
+      <c r="AF3" t="n">
+        <v>100000</v>
+      </c>
       <c r="AG3"/>
       <c r="AH3"/>
       <c r="AI3"/>
@@ -57633,7 +55087,9 @@
       <c r="AL3"/>
       <c r="AM3"/>
       <c r="AN3"/>
-      <c r="AO3"/>
+      <c r="AO3" t="n">
+        <v>7</v>
+      </c>
       <c r="AP3"/>
       <c r="AQ3"/>
       <c r="AR3"/>
@@ -57643,7 +55099,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -57652,43 +55108,43 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
         <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H4" t="n">
-        <v>1296588</v>
+        <v>7000000</v>
       </c>
       <c r="I4" t="s">
         <v>81</v>
       </c>
       <c r="J4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L4" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="M4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="N4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="O4" t="s">
         <v>82</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>695400</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -57697,7 +55153,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>10000</v>
+        <v>695400</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -57732,7 +55188,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -57741,52 +55197,52 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H5" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="J5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="L5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M5" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="N5" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="O5" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="P5" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -57808,9 +55264,7 @@
       <c r="AI5"/>
       <c r="AJ5"/>
       <c r="AK5"/>
-      <c r="AL5" t="n">
-        <v>250000</v>
-      </c>
+      <c r="AL5"/>
       <c r="AM5"/>
       <c r="AN5"/>
       <c r="AO5"/>
@@ -57821,570 +55275,6 @@
       <c r="AT5"/>
       <c r="AU5"/>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8300</v>
-      </c>
-      <c r="I6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" t="s">
-        <v>179</v>
-      </c>
-      <c r="K6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" t="s">
-        <v>180</v>
-      </c>
-      <c r="M6" t="s">
-        <v>181</v>
-      </c>
-      <c r="N6" t="s">
-        <v>156</v>
-      </c>
-      <c r="O6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P6" t="n">
-        <v>672600</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>672600</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>657600</v>
-      </c>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6" t="n">
-        <v>15000</v>
-      </c>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
-      <c r="AK6"/>
-      <c r="AL6"/>
-      <c r="AM6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AN6"/>
-      <c r="AO6"/>
-      <c r="AP6"/>
-      <c r="AQ6"/>
-      <c r="AR6"/>
-      <c r="AS6"/>
-      <c r="AT6"/>
-      <c r="AU6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="I7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M7" t="s">
-        <v>186</v>
-      </c>
-      <c r="N7" t="s">
-        <v>187</v>
-      </c>
-      <c r="O7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P7" t="n">
-        <v>130800</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>130800</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7" t="n">
-        <v>130800</v>
-      </c>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-      <c r="AF7"/>
-      <c r="AG7"/>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7"/>
-      <c r="AK7"/>
-      <c r="AL7"/>
-      <c r="AM7"/>
-      <c r="AN7"/>
-      <c r="AO7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP7"/>
-      <c r="AQ7"/>
-      <c r="AR7"/>
-      <c r="AS7"/>
-      <c r="AT7"/>
-      <c r="AU7"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="I8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" t="s">
-        <v>190</v>
-      </c>
-      <c r="K8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" t="s">
-        <v>191</v>
-      </c>
-      <c r="M8" t="s">
-        <v>192</v>
-      </c>
-      <c r="N8" t="s">
-        <v>156</v>
-      </c>
-      <c r="O8" t="s">
-        <v>106</v>
-      </c>
-      <c r="P8" t="n">
-        <v>7707000</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>7707000</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8" t="n">
-        <v>7002000</v>
-      </c>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-      <c r="AF8" t="n">
-        <v>75000</v>
-      </c>
-      <c r="AG8"/>
-      <c r="AH8"/>
-      <c r="AI8"/>
-      <c r="AJ8"/>
-      <c r="AK8"/>
-      <c r="AL8"/>
-      <c r="AM8"/>
-      <c r="AN8"/>
-      <c r="AO8" t="n">
-        <v>105</v>
-      </c>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>10</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>197</v>
-      </c>
-      <c r="J9" t="s">
-        <v>198</v>
-      </c>
-      <c r="K9" t="s">
-        <v>199</v>
-      </c>
-      <c r="L9" t="s">
-        <v>200</v>
-      </c>
-      <c r="M9" t="s">
-        <v>201</v>
-      </c>
-      <c r="N9" t="s">
-        <v>175</v>
-      </c>
-      <c r="O9" t="s">
-        <v>202</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5025000</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5025000</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
-      <c r="AK9"/>
-      <c r="AL9" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="AM9"/>
-      <c r="AN9"/>
-      <c r="AO9"/>
-      <c r="AP9"/>
-      <c r="AQ9"/>
-      <c r="AR9"/>
-      <c r="AS9"/>
-      <c r="AT9"/>
-      <c r="AU9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G10" t="s">
-        <v>206</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>207</v>
-      </c>
-      <c r="J10" t="s">
-        <v>208</v>
-      </c>
-      <c r="K10" t="s">
-        <v>209</v>
-      </c>
-      <c r="L10" t="s">
-        <v>154</v>
-      </c>
-      <c r="M10" t="s">
-        <v>210</v>
-      </c>
-      <c r="N10" t="s">
-        <v>175</v>
-      </c>
-      <c r="O10" t="s">
-        <v>211</v>
-      </c>
-      <c r="P10" t="n">
-        <v>67600</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>67600</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10"/>
-      <c r="V10" t="n">
-        <v>27600</v>
-      </c>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10" t="n">
-        <v>40000</v>
-      </c>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO10"/>
-      <c r="AP10"/>
-      <c r="AQ10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" t="s">
-        <v>213</v>
-      </c>
-      <c r="F11" t="s">
-        <v>214</v>
-      </c>
-      <c r="G11" t="s">
-        <v>215</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>216</v>
-      </c>
-      <c r="J11" t="s">
-        <v>217</v>
-      </c>
-      <c r="K11" t="s">
-        <v>218</v>
-      </c>
-      <c r="L11" t="s">
-        <v>185</v>
-      </c>
-      <c r="M11" t="s">
-        <v>219</v>
-      </c>
-      <c r="N11" t="s">
-        <v>220</v>
-      </c>
-      <c r="O11" t="s">
-        <v>216</v>
-      </c>
-      <c r="P11" t="n">
-        <v>213300</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>213300</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11" t="n">
-        <v>85800</v>
-      </c>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-      <c r="AE11"/>
-      <c r="AF11" t="n">
-        <v>7500</v>
-      </c>
-      <c r="AG11"/>
-      <c r="AH11"/>
-      <c r="AI11"/>
-      <c r="AJ11"/>
-      <c r="AK11"/>
-      <c r="AL11"/>
-      <c r="AM11"/>
-      <c r="AN11"/>
-      <c r="AO11"/>
-      <c r="AP11"/>
-      <c r="AQ11"/>
-      <c r="AR11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS11"/>
-      <c r="AT11"/>
-      <c r="AU11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
